--- a/Test_Data/dumy_data.xlsx
+++ b/Test_Data/dumy_data.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Welcome\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14350" windowHeight="3710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>User_id</t>
   </si>
@@ -105,6 +101,30 @@
   </si>
   <si>
     <t>test@4</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>9878678705</t>
+  </si>
+  <si>
+    <t>8909787656</t>
+  </si>
+  <si>
+    <t>9870963045</t>
+  </si>
+  <si>
+    <t>9802134508</t>
   </si>
 </sst>
 </file>
@@ -162,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +191,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,7 +480,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,8 +513,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1010</v>
+      <c r="A2" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -508,13 +531,13 @@
       <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2">
-        <v>9878678705</v>
+      <c r="G2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>1020</v>
+      <c r="A3" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -531,13 +554,13 @@
       <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2">
-        <v>8909787656</v>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>1025</v>
+      <c r="A4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -554,13 +577,13 @@
       <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2">
-        <v>9870963045</v>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>1035</v>
+      <c r="A5" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -577,8 +600,8 @@
       <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2">
-        <v>9802134508</v>
+      <c r="G5" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
